--- a/dist/checklists/core/xlsx/mixs/general/sc_rnaseq_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/general/sc_rnaseq_mixs_core.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="315">
   <si>
     <t>Study ID</t>
   </si>
@@ -1514,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1532,10 +1532,9 @@
     <col min="10" max="11" width="179.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,11 +1574,8 @@
       <c r="M1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1619,11 +1615,8 @@
       <c r="M2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -1663,11 +1656,8 @@
       <c r="M3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1683,14 +1673,13 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:N4">
+  <conditionalFormatting sqref="A1:M4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
